--- a/candao_webUI/datas/user.xlsx
+++ b/candao_webUI/datas/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\webUI_testDemo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitfile\candao_webUI\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF17EB2-E8C6-4A03-B2F5-9A31990FCD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8234B4-C101-4A92-9D3E-60069DE2D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="16200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>用户名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qwase899130@@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liuzhihua</t>
+    <t>Liuzhihua12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -396,14 +392,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
